--- a/manish/courseLaw/LMR/Essays1.xlsx
+++ b/manish/courseLaw/LMR/Essays1.xlsx
@@ -9,10 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Essay 7" sheetId="1" r:id="rId1"/>
+    <sheet name="Contract Essay 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Contract Essay 2" sheetId="6" r:id="rId2"/>
+    <sheet name="Contract Essay 3" sheetId="7" r:id="rId3"/>
+    <sheet name="Contract Essay 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Contract Essay 5" sheetId="3" r:id="rId5"/>
+    <sheet name="Contract Essay 6" sheetId="2" r:id="rId6"/>
+    <sheet name="Contract Essay 7" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Contracts</t>
   </si>
@@ -396,13 +402,84 @@
   </si>
   <si>
     <t>Therefore the contract is specific enough to be enforced.</t>
+  </si>
+  <si>
+    <t>Under UCC a buyer who receives non-conforming goods can REJECT the goods and REPUDIATE the contract. The buyer can COVER by buying the goods elsewhere and demand the excess of the cover price over the contract price.</t>
+  </si>
+  <si>
+    <t>Here Buyco had a right to reject the goods, and it covered at a price of $5. Since this is less than the $6 contract price, Buyco suffered no loss as a result of the breach and has no right to receive damages from Sellco.</t>
+  </si>
+  <si>
+    <t>Therefore, Buyco's demand for $50,000 has no basis and they would get nothing.</t>
+  </si>
+  <si>
+    <t>Under the PERFECT TENDER RULE of UCC, goods must be supplied exactly as ordered. Any non-conforming goods is a major breach.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A seller that delivers non-confirming goods has a right to GIVE NOTICE of intent to cure, and may CURE the shipment of non-conforming goods at any time within the contract period. Further the seller gets a reasonable amount of extra time beyond the contract period if the original shipment was sent with a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reasonable belief it would satisfy the buyer's needs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Here Sellco shipped non-conforming goods because it shipped "blue widges". They were not sent with reasonable belief they would satisfy the buyer's needs because they were sent by "mistake". And there is no time left to cure in the contract period because the shipment was on the deadline of "6/8/99", and</t>
+  </si>
+  <si>
+    <t>Therefore, Sellco breached by shipping non-conforming goods, and has no time left to cure.</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This is a simple UCC formation, breach and remedy question. The need for writing, and the existence of a writing must be discussed. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">If an offeree says it “will” or “would” ship goods it is a promise to ship and an acceptance, even if they cite a varying term. In this case UCC 2-207 applies. But if the offeree only says it “can” or “could” ship on different terms it is not a promise to ship. It is really a rejection and counter-offer. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The unusual fact here is that Buyco has suffered no loss, so they can recover no damages. This should be expressly recognized. They promised to buy for $6 and they covered for $5. They benefited from Sellco's error and have no cause of action.] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -445,6 +522,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Bold"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -463,14 +545,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -486,12 +570,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -767,10 +859,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,14 +1282,81 @@
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="C74" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="6"/>
+    </row>
+    <row r="76" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B76" s="6"/>
+      <c r="C76" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="6"/>
+    </row>
+    <row r="78" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B78" s="6"/>
+      <c r="C78" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="6"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="6"/>
+      <c r="C80" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="6"/>
+    </row>
+    <row r="82" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B82" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C84" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C89" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C91" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C93" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Essays1.xlsx
+++ b/manish/courseLaw/LMR/Essays1.xlsx
@@ -9,16 +9,29 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
-    <sheet name="Contract Essay 1" sheetId="5" r:id="rId1"/>
-    <sheet name="Contract Essay 2" sheetId="6" r:id="rId2"/>
-    <sheet name="Contract Essay 3" sheetId="7" r:id="rId3"/>
-    <sheet name="Contract Essay 4" sheetId="4" r:id="rId4"/>
-    <sheet name="Contract Essay 5" sheetId="3" r:id="rId5"/>
-    <sheet name="Contract Essay 6" sheetId="2" r:id="rId6"/>
-    <sheet name="Contract Essay 7" sheetId="1" r:id="rId7"/>
+    <sheet name="Criminal Essay 1" sheetId="13" r:id="rId1"/>
+    <sheet name="Criminal Essay 2" sheetId="14" r:id="rId2"/>
+    <sheet name="Criminal Essay 3" sheetId="15" r:id="rId3"/>
+    <sheet name="Criminal Essay 4" sheetId="16" r:id="rId4"/>
+    <sheet name="Criminal Essay 5" sheetId="17" r:id="rId5"/>
+    <sheet name="Criminal Essay 6" sheetId="18" r:id="rId6"/>
+    <sheet name="Torts Essay 1" sheetId="19" r:id="rId7"/>
+    <sheet name="Torts Essay 2" sheetId="20" r:id="rId8"/>
+    <sheet name="Torts Essay 3" sheetId="8" r:id="rId9"/>
+    <sheet name="Torts Essay 4" sheetId="11" r:id="rId10"/>
+    <sheet name="Torts Essay 5" sheetId="12" r:id="rId11"/>
+    <sheet name="Torts Essay 6" sheetId="9" r:id="rId12"/>
+    <sheet name="Torts Essay 7" sheetId="10" r:id="rId13"/>
+    <sheet name="Contract Essay 1" sheetId="5" r:id="rId14"/>
+    <sheet name="Contract Essay 2" sheetId="6" r:id="rId15"/>
+    <sheet name="Contract Essay 3" sheetId="7" r:id="rId16"/>
+    <sheet name="Contract Essay 4" sheetId="4" r:id="rId17"/>
+    <sheet name="Contract Essay 5" sheetId="3" r:id="rId18"/>
+    <sheet name="Contract Essay 6" sheetId="2" r:id="rId19"/>
+    <sheet name="Contract Essay 7" sheetId="1" r:id="rId20"/>
   </sheets>
   <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="205">
   <si>
     <t>Contracts</t>
   </si>
@@ -473,13 +486,641 @@
   </si>
   <si>
     <t xml:space="preserve">The unusual fact here is that Buyco has suffered no loss, so they can recover no damages. This should be expressly recognized. They promised to buy for $6 and they covered for $5. They benefited from Sellco's error and have no cause of action.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dottie's father Fester called her one day and told her he had suffered a stroke. He was paralyzed from the scalp down. He asked her to come live with him and take care of him. He told her that if, and only if, she took care of him for the rest of his life he would leave her his entire estate in his will, including his house. He emphasized that Dottie could only accept his offer by doing what he asked, and that she could not accept by merely promising to take care of him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dottie sold her home at a $50,000 loss and moved across the country to take care of Fester for the rest of his life. She gave up her $250,000 per year practice as a brain surgeon nursed Fester 24 hours a day, seven days a week. Similar care in a nursing home would have cost $40,000 per year. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">After ten years Fester suddenly said, "I revoke! Get out of my house." Dottie sadly moved into a homeless shelter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A month later Fester died leaving his estate, consisting of the house and 1 million shares of Microsoft, to TV evangelist, Reverend Melvin Huckster, and his Society for the Prevention of Cat Teasing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Dottie's remedies at law relative to the stock? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2)  Dottie's remedies at law relative to the house? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3)  Her remedies for enforcement at equity? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4)  Her remedies in alternative to enforcement? </t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homeowner Homer orally agreed with builder Bill that he would pay Bill $100,000 to have a custom built home erected on the land that Homer already owned. They agreed the home was to be done before the winter rains set in. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Bill was half done building, he discovered he had terminal cancer and would only live a few weeks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill told Homer his medical expenses were so high he needed $30,000 more in order to hire a helper or it would be impossible for him to finish the home in time. Homer offered to pay Bill the extra $30,000 this would take because he was tired of living in a tent. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In reasonable reliance on Homer’s promise, Bill hired his friend, Fred, and paid Fred wages of $30,000. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The home was all done except for the painting when Bill died. Fred split. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer demanded that Bill’s widow, Wanda, as executor of Bill’s estate, finish the house. She said it was impossible. </t>
+  </si>
+  <si>
+    <t>Wanda demanded payment of $130,000, but Homer was mad and refused to pay anything. Homer paid painter Paul $10,000 to finish the painting of the home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the rights and defenses of Homer and Wanda against each other. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When Al was in high school he wrote and copyrighted a rap song called "Dumb and Dead." He submitted his song to talent agent Tom. On January 1, two days before his seventeenth birthday, he and Tom reached a valid oral agreement that Tom could have exclusive recording rights until Al was 18 years old. Tom was to receive 25 percent of "sales." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom sent Al a signed, written "sales confirmation" of their agreement that gave all of the details of the agreement. The memo pointed out that records are "goods" under the UCC. After this Al performed completely under the terms of the agreement. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom pitched Al's song to Deccra Records telling them Al was 19 years old, an adult. Following negotiations by Tom, Deccra and Al signed a written agreement on March 1 that Al would receive 50 percent of gross record sales over the next three years. Deccra was aware that Tom would receive a portion of this money under his contract with Al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before Deccra paid anything it discovered Al was only 17. A Deccra executive secretly met with Al and told him the company would not stand by its first agreement, and an alternative agreement was proposed that would benefit both parties. Al agreed on April 1 to a new arrangement under which he got 40 percent of gross record sales, Deccra got 60 percent and Tom was cut completely out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The song went straight to the top of the charts and Deccra's sales were $1.6 million in the next year. Of this amount Deccra paid Al $640,000, 40 percent of gross sales. Deccra's distribution expenses were $360,000, and it made profits of $600,000. Tom got nothing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom got a lawyer and sued both Al and Deccra. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al also went to a lawyer. Six months after becoming an adult on his eighteenth birthday he sued Deccra claiming he was a minor when the contract was signed. He demanded return of all remaining revenues, $960,000. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)  Was the contract of January 1 unenforceable by Tom because it was oral? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2)  Was the contract of January 1 enforceable against Tom by Al? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3)  Was the contract of March 1 enforceable by Al against Deccra? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4)  Was the contract of April 1 enforceable by Deccra against Al? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5)  If the contract of April 1 is legally unenforceable by Deccra, what equitable argument might it make? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groucho entered into a contract with new car dealer Harpo to buy a new Dodge for his brother Chico on his birthday. The agreed sales price was $25,000. Harpo promised the new car would be delivered by Chico's birthday within two weeks. Chico was ecstatic. Groucho made a down payment of $2,000 and promised to pay an additional amount of $23,000 for the car over a five- year period. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harpo made a deal with another dealer, Swifty. Swifty agreed to deliver a Dodge of the type specified on time for Chico's birthday in exchange for an immediate payment of $20,000. </t>
+  </si>
+  <si>
+    <t>Swifty became insolvent, its inventory was seized and it did not deliver the Dodge. Harpo blames Swifty.</t>
+  </si>
+  <si>
+    <t>Chico was upset he didn't get the car he expected.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are the rights, remedies and defenses of Groucho, Harpo, Chico and Swifty? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al had bought a lot of clothes over the years. One day he called tailor Bob and asked him to custom make him a tuxedo to wear to the wedding of his daughter Carla the next Sunday. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob told Al that he could not make a tuxedo so fast and suggested instead that Al buy a ready- made tuxedo that he had in stock in exactly Al's size. Al agreed and said he would be in to pick it up later that week. Price was not discussed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob sent Al a note several days later stating, "This is to confirm your order to purchase the tuxedo. The price is normally $750, but for you the price is only $519.95." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al was shocked at the price, but it was too late for him to get a tuxedo anywhere else on such short notice. He felt he had been taken advantage of, but there was nothing he could do. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al came in and tried the tuxedo on the day before the wedding and it did not fit. Bob assured him not to worry. He would take it in. Al nodded. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob took in the pants and sent Al a note that said, "I took in the pants and it should fit you like a glove. With alterations the price is now $750. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al was furious. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carla's wedding was suddenly called off. Al never called Bob and never went to get the tuxedo. Bob was furious. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Does Bob have a right to be paid for the tuxedo? What are Al's defenses? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practice Question 16-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy owned a rent house. She advertised in the newspaper to find a renter, citing rent of $700 a month. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer saw the ad and called Lucy at 9:00 a.m. Homer said, “"I saw your ad and accept your offer! I will be right there to pay you. I have to see the house, but would you consider $550?” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy said, “It's a deal. I will rent to you for $550. This is a firm offer.” Homer said he would be there in one hour to see the house. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homer went 100 miles an hour to see the house, sideswiping Victoria. Victoria crashed and died along with her 7-month fetus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At 3:00 p.m. Homer arrived, five hours late, ran up to Lucy and said, “I unequivocally accept. Here is my $550.” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy said, “I have decided not to rent to you.” Discuss the rights of Homer and Lucy's defenses. </t>
+  </si>
+  <si>
+    <t>1) UCC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Is a WRITING REQUIRED? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Was the ADVERTISEMENT an OFFER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Was the 9:00 statement by Homer an OFFER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Was the 9:00 response by Lucy an OFFER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Did Homer have a valid OPTION? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) Did Homer effectively ACCEPT at 3:00? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) UCC? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) MERCHANTS? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Is A WRITING NEEDED? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Did Bob OFFER to sell the tuxedo? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Did Al ACCEPT Bob's offer? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) What were the TERMS of the bargain? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) BREACH? </t>
+  </si>
+  <si>
+    <t>8) Can Al raise the LACK OF WRITING as a defense?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) FRUSTRATION OF PURPOSE? </t>
+  </si>
+  <si>
+    <t>GROUCHO v. HARPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Groucho's rights under a THIRD-PARTY BENEFICIARY CONTRACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) Groucho's REMEDIES? </t>
+  </si>
+  <si>
+    <t>GROUCHO v. SWIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Groucho's rights under the DELEGATION contract? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Groucho's REMEDIES against Swifty? </t>
+  </si>
+  <si>
+    <t>HARPO v. SWIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Harpo's rights under the DELEGATION contract? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHICO v. HARPO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) Chico's rights as a THIRD-PARTY BENEFICIARY? </t>
+  </si>
+  <si>
+    <t>8) Chico's REMEDIES?</t>
+  </si>
+  <si>
+    <t>CHICO v. SWIFTY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) Chico's rights and remedies against Swifty? </t>
+  </si>
+  <si>
+    <t>CHICO v. GROUCHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10) Chico's rights and remedies against Groucho? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-3: Third Parties in a UCC Setting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-2: UCC and Acceptance Varying Terms </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-1: Contract Formation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-4: Defenses </t>
+  </si>
+  <si>
+    <t>TOM v. AL</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Italic"/>
+      </rPr>
+      <t xml:space="preserve">Was the contract of January 1 unenforceable by Tom because it was oral? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2) Statute of Frauds? </t>
+  </si>
+  <si>
+    <t>2. Was the contract of January 1 enforceable against Tom by Al?</t>
+  </si>
+  <si>
+    <t>3) STATUTE OF FRAUDS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Enforceable by a MINOR? </t>
+  </si>
+  <si>
+    <t>AL v. DECCRA</t>
+  </si>
+  <si>
+    <t>3. Was the contract of March 1 enforceable by Al against Deccra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) FRAUD? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. ISSUE -- Was the contract of April 1 enforceable by Deccra against Al? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) EFFECTIVE REPUDIATION OF CONTRACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. If the contract of April 1 is legally unenforceable by Deccra, what equitable argument might it make? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7) PROMISSORY ESTOPPEL?. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-5: Common Law Modification, Breach and Remedy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WANDA v. HOMER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) MODIFICATION without CONSIDERATION? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) Enforceable by PROMISSORY ESTOPPEL? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) Defense of IMPOSSIBILITY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) BREACH? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 16-6: Common Law Remedies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. What are Dottie's remedies at law relative to the stock? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) UNILATERAL CONTRACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) SAVING DOCTRINES of a UNILATERAL CONTRACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) BREACH OF IMPLIED COVENANT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Dottie's CONTRACT REMEDY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. What are Dottie's remedies at law relative to the house? </t>
+  </si>
+  <si>
+    <t>7) STATUTE OF FRAUDS?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. What are Dottie's remedies for enforcement at equity? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8) PROMISSORY ESTOPPEL? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. What are Dottie's remedies in alternative to enforcement? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9) EQUITABLE RESTITUTION? </t>
+  </si>
+  <si>
+    <t>Dottie vs. Estate of Fester</t>
+  </si>
+  <si>
+    <t>The rights and remedies of the parties here depend on whether there was a valid contract.  A CONTRACT is a promise or set of promises the performance of which the law will recognize as a duty and for the breach of which the law will provide a remedy.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UCC Article 2 governs contracts for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of GOODS. GOODS are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>movable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> things at the time of identification to the contract. Otherwise only common law applies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here the contract is not for a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of goods because it is an exchange of promises that Dottie will provide services and Fester will leave her his stock in his Will in exchange.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, only the COMMON LAW governs.</t>
+  </si>
+  <si>
+    <t>Under the STATUTE OF FRAUDS certain types of contracts must be in writing to be enforced. A contract for transfer of stock is not one of them.</t>
+  </si>
+  <si>
+    <t>Therefore, no writing is required by the Statute of Frauds.</t>
+  </si>
+  <si>
+    <t>Under contract law a UNILATERAL CONTRACT is proposed by an offer that unequivocally requires acceptance by performance and cannot be accepted merely by a promise of performance.</t>
+  </si>
+  <si>
+    <t>Here this offer unequivocally required Dottie to "actually take care of" Fester for the rest of his life because Fester "emphasized" Dottie could not accept merely "promising" to do what he asked.</t>
+  </si>
+  <si>
+    <t>Therefore, this was a offer of a unilateral contract.</t>
+  </si>
+  <si>
+    <t>Under the common law, an offeror could revoke her offer at any time before acceptance. Under that view Fester could revoke at any time, leaving Dottie without a remedy. Modernly SAVING DOCTRINES have been adopted to prohibit the offeror of a unilateral contract from revoking for a reasonable time after becoming aware that the offeree has begun performance  in acceptance.</t>
+  </si>
+  <si>
+    <t>Under an alternative view the offeror may revoke but the offeree has a right to RESTITUTION to avoid UNJUST ENRICHMENT.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here Dottie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>began performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in acceptance because she "sold her home", "moved" and "nursed Fester." And Fester was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aware</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of her performance because he was alert despite his paralysis.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, under the modern saving doctrines Dottie would usually be given a reasonable time to complete performance. Here a "reasonable time" is the rest of Fester's life, since that was the condition of the offer.</t>
+  </si>
+  <si>
+    <t>Under contract law an IMPLIED COVENANT by each party to a contract is that they will not act to prevent other party from performing contract duties and they will take reasonable steps to assure the other party enjoys the expected benefit of the bargain. Performance of this implied covenant is an IMPLIED MATERIAL CONDITION of every contract.</t>
+  </si>
+  <si>
+    <t>Therefore, Dottie can claim a MAJOR BREACH by Fester</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here Fester breached the implied covenant because he denied Dottie the opportunity to complete performance in acceptance. This caused failure of an implied material condition because it </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>totally denied her any of the benefits</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> she expected from the contract.</t>
+    </r>
+  </si>
+  <si>
+    <t>Under contract law remedies are COMPENSATORY to give the non-breaching party the benefit of bargain, the compensation that has been bargained for. If property is UNIQUE money damages are inadequate remedy and SPECIFIC PERFORMANCE is appropriate.</t>
+  </si>
+  <si>
+    <t>Here the stock is not "unique" and money damages are adequate.</t>
+  </si>
+  <si>
+    <t>Therefore Dottie's remedy is an award of money damages equal to the value of the stock.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The same common law and saving doctrines apply to the house as for the stock as explained above. But under the STATUTE OF FRAUDS contracts for interests in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>land</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be in writing to be enforced at law.</t>
+    </r>
+  </si>
+  <si>
+    <t>The Statute of Fraud is defined above.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here the contract was for conveyance of an interest in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>land</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because the contract was for a "house" to be given to Dottie in exchange for services.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, the Statute of Frauds would require a writing, and this contract generally cannot be enforced at law regarding the house.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -494,6 +1135,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Bold"/>
     </font>
     <font>
       <sz val="12"/>
@@ -527,6 +1173,17 @@
       <color theme="1"/>
       <name val="TimesNewRoman,Bold"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Italic"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman,Italic"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -547,34 +1204,45 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -869,6 +1537,1240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="68.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.1640625" customWidth="1"/>
+    <col min="3" max="3" width="90" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65" style="3" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="54" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="65.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B39" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B43" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B45" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B47" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="56" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="81.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B29" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B31" s="12"/>
+      <c r="C31" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="12"/>
+      <c r="C33" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B35" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="12"/>
+      <c r="C37" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B41" s="12"/>
+      <c r="C41" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="12"/>
+      <c r="C43" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B45" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B47" s="13"/>
+      <c r="C47" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B49" s="13"/>
+      <c r="C49" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B50" s="13"/>
+      <c r="C50" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B52" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B54" s="12"/>
+      <c r="C54" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="12"/>
+      <c r="C56" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B58" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="12"/>
+      <c r="C60" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="12"/>
+      <c r="C62" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B64" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="13"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B68" s="12"/>
+      <c r="C68" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B70" s="12"/>
+      <c r="C70" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="13"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76" s="13"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="13"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78" s="13"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="13"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="13"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="13"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="13"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="13"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="13"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="13"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -877,6 +2779,441 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28" style="3" customWidth="1"/>
+    <col min="3" max="3" width="83" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="8"/>
+    </row>
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B24" s="8"/>
+      <c r="C24" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="8"/>
+      <c r="C26" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="8"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="8"/>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B36" s="8"/>
+      <c r="C36" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B38" s="8"/>
+      <c r="C38" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B40" s="8"/>
+      <c r="C40" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+    </row>
+    <row r="42" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="8"/>
+    </row>
+    <row r="44" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B44" s="8"/>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="8"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="8"/>
+      <c r="C46" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="8"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+    </row>
+    <row r="50" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="8"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="8"/>
+      <c r="C52" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="8"/>
+    </row>
+    <row r="54" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B54" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="8"/>
+    </row>
+    <row r="56" spans="2:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="B56" s="8"/>
+      <c r="C56" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="8"/>
+    </row>
+    <row r="58" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B58" s="8"/>
+      <c r="C58" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="8"/>
+    </row>
+    <row r="60" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B60" s="8"/>
+      <c r="C60" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="8"/>
+    </row>
+    <row r="62" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B62" s="8"/>
+      <c r="C62" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="8"/>
+    </row>
+    <row r="64" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B64" s="8"/>
+      <c r="C64" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="8"/>
+    </row>
+    <row r="66" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B66" s="8"/>
+      <c r="C66" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67" s="8"/>
+    </row>
+    <row r="68" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B68" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69" s="8"/>
+    </row>
+    <row r="70" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B70" s="8"/>
+      <c r="C70" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72" s="8"/>
+      <c r="C72" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B74" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B76" s="8"/>
+      <c r="C76" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B78" s="8"/>
+      <c r="C78" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="8"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80" s="8"/>
+      <c r="C80" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="8"/>
+    </row>
+    <row r="82" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C84" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C89" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="10"/>
+    </row>
+    <row r="91" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C91" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C93" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -897,7 +3234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -931,435 +3268,36 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="80.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="83" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C20" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B24" s="6"/>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="C26" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B36" s="6"/>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B38" s="6"/>
-      <c r="C38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B40" s="6"/>
-      <c r="C40" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="2:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="C44" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="6"/>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="2:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B50" s="6"/>
-      <c r="C50" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="C52" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="B56" s="6"/>
-      <c r="C56" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B58" s="6"/>
-      <c r="C58" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B60" s="6"/>
-      <c r="C60" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B62" s="6"/>
-      <c r="C62" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B64" s="6"/>
-      <c r="C64" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B66" s="6"/>
-      <c r="C66" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B68" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B70" s="6"/>
-      <c r="C70" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="6"/>
-      <c r="C72" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="B74" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B76" s="6"/>
-      <c r="C76" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B78" s="6"/>
-      <c r="C78" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="6"/>
-      <c r="C80" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="B82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C84" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C86" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="C89" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C90" s="8"/>
-    </row>
-    <row r="91" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C91" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C92" s="8"/>
-    </row>
-    <row r="93" spans="2:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="C93" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/manish/courseLaw/LMR/Essays1.xlsx
+++ b/manish/courseLaw/LMR/Essays1.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
   <si>
     <t>Contracts</t>
   </si>
@@ -1114,6 +1114,119 @@
   </si>
   <si>
     <t>Therefore, the Statute of Frauds would require a writing, and this contract generally cannot be enforced at law regarding the house.</t>
+  </si>
+  <si>
+    <t>If a plaintiff has no adequate remedy at law, they may be able to obtain a remedy in equity. Here Dottie has an adequate remedy at law as to the promise of the stock, so she cannot seek enforcement at equity as to that part of Fester's promise. But since she has no adequate remedy as to the promise of the house , she can seek a remedy at equity as to that part of her claim.</t>
+  </si>
+  <si>
+    <t>Under the equitable doctrine of PROMISSORY ESTOPPEL a promise or contract that cannot be enforced at law might be enforced at equity to the extent necessary to prevent unjust enrichment where 1) the party to be bound made a promise, 2) intending to induce reliance, 3) there was reasonable reliance on the promise by the party seeking equity, and 4) justice demands enforcement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here there was a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>promise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because Fester "promised" to give Dottie the house. And Fester made the promise intending to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>induce reliance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by Dottie because he wanted her to "move" to where he lived and "nurse" him. Dottie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reasonably relied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because she trusted him as a "honest, God-fearing Christian." And there would be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>injustice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> otherwise because she nursed him for "10 years."</t>
+    </r>
+  </si>
+  <si>
+    <t>To enforce the promise Dottie would argue that an award of money damages is insufficient to prevent unjust enrichment because the "house" is unique property. A Court of equity may order title to the house conveyed to her to prevent unjustice.</t>
+  </si>
+  <si>
+    <t>Therefore, Dottie may be able to enforce the promise in equity even though it could not be enforced at law.</t>
+  </si>
+  <si>
+    <t>At equity a party that cannot enforce a promise at law or equity may still seek damages in RESTITUTION to prevent UNJUST ENRICHMENT. The measure of damages may be either the benefits their performance conveyed to the breaching party, or else the detriment they have suffered in reasonable reliance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here Dottie can seek RESTITUTION for the benefits she conveyed to Fester. He enjoyed benefits that would have cost him $40, 000 a year for ten years, so he enjoyed an unjust enrichment of $400, 000. </t>
+  </si>
+  <si>
+    <t>In the alternative Dottie suffered a loss of $50,000 on her house and foregone wages of $2,500,000 over the ten year period, for a total of $2,550,000.</t>
+  </si>
+  <si>
+    <t>Dottie may seek an award of money damages in these amounts in equitable restitution.</t>
   </si>
 </sst>
 </file>
@@ -2355,10 +2468,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C88"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2712,58 +2825,79 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3" ht="64" x14ac:dyDescent="0.2">
       <c r="B73" s="13" t="s">
         <v>178</v>
       </c>
+      <c r="C73" s="3" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="13"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3" ht="80" x14ac:dyDescent="0.2">
       <c r="B75" s="13"/>
+      <c r="C75" s="3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="13"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3" ht="64" x14ac:dyDescent="0.2">
       <c r="B77" s="13"/>
+      <c r="C77" s="3" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="13"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3" ht="48" x14ac:dyDescent="0.2">
       <c r="B79" s="13"/>
+      <c r="C79" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="13"/>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3" ht="32" x14ac:dyDescent="0.2">
       <c r="B81" s="13"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C81" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="13"/>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="13"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="13"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="13"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="13"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="12" t="s">
+    <row r="83" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B83" s="13" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="12" t="s">
+    <row r="84" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B84" s="12" t="s">
         <v>180</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C86" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C88" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C90" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/manish/courseLaw/LMR/Essays1.xlsx
+++ b/manish/courseLaw/LMR/Essays1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Criminal Essay 1" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="236">
   <si>
     <t>Contracts</t>
   </si>
@@ -1227,6 +1227,338 @@
   </si>
   <si>
     <t>Dottie may seek an award of money damages in these amounts in equitable restitution.</t>
+  </si>
+  <si>
+    <t>The rights an remedies of the parties here depend on whether there is valid contract. A CONTRACT is a promise or set of promises the performance of which the law will recognize as a duty and for the breach of which the law will provide a remedy.</t>
+  </si>
+  <si>
+    <t>Here the contract does not involve a sale of Goods because it is a contract for personal services i.e. building a house.</t>
+  </si>
+  <si>
+    <t>Therefore, only COMMON LAW applies.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Article 2 of UCC governs contracts for sale of GOODS. GOODS are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>movable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> item at the time on identification to the contract. Otherwise the common law applies.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under Statute of Frauds certain types of contracts must be in writing to be enforced.  A contract for conveyance of an interest of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LAND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> generally requires a writing, and contracts that necessarily must take more than a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>year to complete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> require a writing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here the contract is for building a house, and does not involve conveyance of an interest in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LAND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because Homer "already owns" the land. And the contract can be perform in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">less than a year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>because it was to completed before the "Winter rains".</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, no writing is required by Statute of Frauds.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under COMMON Law, a contract </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> must be supported by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONSIDERATION,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a bargained for exchange of value posing legal detriment sufficient to enforce the modification at law.</t>
+    </r>
+  </si>
+  <si>
+    <t>Here the contract was modified because Homer promised to pay $30,000 more. But Bill did not give anything of value in exchange for that promise since he only agreed to do what he already had a PRE-EXISTING DUTY to do - to build a house for $100,000.</t>
+  </si>
+  <si>
+    <t>Therefore, the modification of the contract was not supported by consideration and it is unforceable at law against Homer.</t>
+  </si>
+  <si>
+    <t>Under the theory of PROMISSORY ESTOPPEL an agreement that otherwise is unenforceable at law for lack of consideration may be enforced at equity to the extent necessary to avoid injustice. In order to plead equity a party must have CLEAN HANDS. Promissory Estoppel applies where the party to be bound made a 1) promise with 2) intent to induce reliance and there 3) was reasonable reliance and 4) failure to enforce the promise would cause an injustice.</t>
+  </si>
+  <si>
+    <t>Here Homer made a promise because he "promised" to pay $30,000. And he did that with intent to induce reliance because Homer didn't want to "live in a tent". Bill reasonably relied on Homer's promise because "he hired Fred" in "reasonable reliance" on the promise. But there is NO JUSTICE because Bill only induced Homer's lie to do exactly what he was already legally obliged to do - finish the house. Homer reaped no UNJUST ENRICHMENT because he only got the house that he had already been promised and had promised to pay for.</t>
+  </si>
+  <si>
+    <t>Therefore, Bill was not induced to do anything he was not otherwise obligated to do. And Homer did not receive anything of value that he was not entitled to.</t>
+  </si>
+  <si>
+    <t>Since there was not justice, promissory estoppel would not apply.</t>
+  </si>
+  <si>
+    <t>Therefore, Homer's promise to pay more cannot be enforced at either law or equity.</t>
+  </si>
+  <si>
+    <r>
+      <t>Further, Bill had UNCLEAN HANDS because he had a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> legal duty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to perform under the contract, and he elicited Homer's promise to pay $30,000 more by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>threatening to breach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the contract. A Court of Equity will not act to enforce a promise elicted by a threat of illegal conduct.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under contract law the defense of IMPOSSIBILITY excuses a breach where the performance of a contract has become </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>impossible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> due to events </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>beyond the control of the parties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Impossiblity means that performance is physically impossible, and it constitutes a failure of an IMPLIED MATERIAL CONDITION of the agreement.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here finishing the house was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not impossible</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because Homer finished it by hiring Paul.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, Wanda cannot claim impossibility as a defense.</t>
+  </si>
+  <si>
+    <t>Under contract law a BREACH is a failure to perform contractual duties when they become due. A MAJOR BREACH is one which denies the non-breaching party the EXPECTED BENEFIT OF THE BARGAIN. A major breach completely excuses the non-breaching party from any further obligation under the contract. A MINOR BREACH is one where the breaching party has SUBSTANTIALLY PERFORMED. When there is minor breach the non-breaching party must perform contractual duties but is entitled to  an OFFSET as compensation for damages.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was substantial performance because the home was all done " except for the painting". The minor breach cost Homer an additional $10,000, so he was entitled to an OFFSET in that amount. </t>
+  </si>
+  <si>
+    <t>Therefore, Homer must pay Wanda the contract price less an offset of $10,000, a net payment of $90,000.</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1656,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1357,6 +1689,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2330,39 +2663,43 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.1640625" customWidth="1"/>
+    <col min="3" max="3" width="82.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
@@ -2370,12 +2707,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>72</v>
       </c>
@@ -2383,12 +2720,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
@@ -2396,69 +2733,235 @@
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B23" s="14" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="11" t="s">
+      <c r="C23" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B25" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="11" t="s">
+      <c r="C25" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B27" s="11"/>
+      <c r="C27" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="11"/>
+      <c r="C29" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B31" s="14" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="11" t="s">
+      <c r="C31" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B33" s="11"/>
+      <c r="C33" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="11"/>
+      <c r="C35" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="11"/>
+    </row>
+    <row r="37" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B37" s="14" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
+      <c r="C37" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="11"/>
+    </row>
+    <row r="39" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B39" s="11"/>
+      <c r="C39" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="11"/>
+    </row>
+    <row r="41" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B41" s="11"/>
+      <c r="C41" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="2:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="B43" s="14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="11" t="s">
+      <c r="C43" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="2:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="B45" s="11"/>
+      <c r="C45" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B47" s="11"/>
+      <c r="C47" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="11"/>
+      <c r="C49" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="11"/>
+    </row>
+    <row r="51" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B51" s="11"/>
+      <c r="C51" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="11"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="11"/>
+      <c r="C53" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="11" t="s">
+      <c r="C55" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="11"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="11"/>
+      <c r="C57" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="11"/>
+      <c r="C59" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="11"/>
+    </row>
+    <row r="61" spans="2:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="B61" s="14" t="s">
         <v>168</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -2470,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2878,7 +3381,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="13" t="s">
         <v>180</v>
       </c>
       <c r="C84" s="3" t="s">

--- a/manish/courseLaw/LMR/Essays1.xlsx
+++ b/manish/courseLaw/LMR/Essays1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Criminal Essay 1" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="338">
   <si>
     <t>Contracts</t>
   </si>
@@ -1559,13 +1559,615 @@
   </si>
   <si>
     <t>Therefore, Homer must pay Wanda the contract price less an offset of $10,000, a net payment of $90,000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom and Dick burst into the 7-11 store in Sacramento through the open door with their guns drawn at midnight. They wanted to rob the store the first night it opened. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Stick ‘em up,” yelled Tom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unfortunately, the store was empty because they made a big mistake. No one was there. There was no merchandise. The store wasn’t going to open until the next week. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They were so mad they ripped the security camera off the wall and threw it in the river. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next morning Tom and Dick saw themselves on the Dumb Crook Show on TV. The store security camera had filled them trying to rob the empty store. They were afraid they would be caught. So to escape Tom drove real fast to San Francisco with Dick as his passenger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">One the freeway going 75 mph, Tom was distracted and accidentally bumped Victoria’s car. She was only going 70 mph, the posted limit. She spun out of control and crashed. She survived, but went into labor, and her full-term, viable baby was born dead. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom then got off the freeway and drove down the crowded city surface streets of San Francisco at 80 mph. Dick was silent. The posted limit was 25 miles per hour. The car ran over homeless person Victor. He died instantly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the possible charges against Tom and Dick. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey and Louie agreed to kidnap Frank's daughter, Millie, and hold her for ransom. Frank was an old movie star with lots of money. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey knew that Louie was a convicted rapist, so he said, "Louie! I want you to swear that you won't touch this girl. Because we are just in this for the ransom. Nothing else. And if you do anything bad to her, that is going to hurt our chances to get the ransom. So, do you swear?" </t>
+  </si>
+  <si>
+    <t>Louie said, "Huey, I swear on a stack of bibles I won't touch the dame."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So Huey and Louie kidnapped Millie and held her for ransom in a rundown motel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey went to the store for smokes and when he came back he discovered Louie had sex with Millie by telling her he would let her go in exchange. He was furious and afraid. He said, "Louie, I quit. I ain't having nothing to do with this no more!" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey left and went to a bar where he got very drunk. That night Millie became so despondent over allowing Louie to have intercourse with her she hung herself in the bathroom of the motel room while Louie was snoring in the bed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Police discovered where Louie was and surrounded the motel room the next morning. Louie vowed not to be taken alive and was gunned down by the cops. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey woke up at noon. Unaware of what happened to Millie and Louie, he decided to turn himself in. So he went to the police that morning and told them everything he knew in an effort to help rescue Millie. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What crimes can Huey be charged with? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom and his lover Dick made frequent trips to Mexico. Dick was getting a little impotent, so on one trip they bought some Viagra with the intent of smuggling it into the United States. They thought this was a felony, but they were wrong. It was not a crime at all. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Officer Oscar tried to pull them over solely because they looked gay, and Oscar hated gays. He intended to harass them. If he was lucky, he thought, maybe he could beat them up. Oscar had some issues to resolve, but he did not have probable cause to stop the car. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom was afraid. He felt Oscar must somehow know he was smuggling Viagra. He thought he would be strip searched, and he had an overwhelming phobia of body cavity searches. He thought he would be put in prison and treated very badly. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom was scared to death and could not bring himself to stop the car. He knew it was wrong, but he could not help himself. He was in a daze. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom continued to drive carefully at 55 mph and Oscar continued to follow him. Oscar was furious. Then Oscar shot at the car several times and Dick was killed. </t>
+  </si>
+  <si>
+    <t>Tom is charged with the murder of Dick.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss Tom's liability for murder and lessor included offenses, and his applicable defenses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim was sweet on Sue, a cute little red-haired girl in his Senior class, but she was more interested in a big, dumb, old football player named Chester. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim thought that Sue would dump Chester for him if he was a hero. So Jim set fire to the wastepaper basket in old-lady Smith's classroom during the class break intending to report it and be a hero. He didn't intend any harm to the building, and he honestly believed the fire would not hurt the school at all. Unfortunately, the fire slightly singed the wall, and some other boys poured water on it before Jim could report it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the confusion Sue dropped her wallet. Jim picked it up and hid it. He planned on giving it back to her that night. Then she would see he is a hero, and she would have to go to homecoming with him. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim called Sue's house several times that night to tell her he had her wallet. But Sue's mother kept saying she was out with Chester. Jim did not tell Sue's mother about the wallet. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This went on all night and Jim got so depressed he went to the river, pocketed Sue's money and threw Sue's wallet as far out into the current as he could throw. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next day Chester came up to Jim in first period and asked him a favor. Chester said the football team had to assemble for a yearbook picture, so Chester asked Jim to buy him two homecoming tickets in fifth period for Sue and him to go to the dance. Jim intended to do Chester a favor and took his $10. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim got mad and decided he would just keep Chester's money. Then after second period Chester offered Jim $20 more so Sue and him could have their pictures taken at the dance. Jim agreed and took the money with every intention of stealing it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim used all of Chester's money to buy cigarettes and Playboy magazines. Discuss Jim's crimes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang rode his bicycle down Rodeo Drive looking for a victim. He saw a "Hot Tomato" ready to cross the street, and as he coasted past her he deftly lifted her wallet right out of her purse without her knowing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the next street he snatched another purse when an "Old Lady" wasn't even looking. But she was holding tight and fell over into the street. As she hit the pavement she lost her grip and Yang rode away with another prize. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yang was having a good day. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the next corner Yang reached out to snag another purse. But at the last second as he reached out he realized the "Young Chick" was not carrying a purse. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disappointed, Yang called it a day. He decided to score some dope with his earnings. Seeing a dude near an alley, he entered into some negotiations. The dude said he could sell him a baggy of "grass" for $10. Yang agreed and handed over $10. Suddenly cops came out of nowhere and jumped on them before Yang got possession. It turned out the "grass" really was grass -- lawn clippings from the dude's back yard. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">What crimes can Yang be charged with and what defenses might be raised? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen was furious because her lover Billy ran off with Mary. Karen decided to kill Mary and looked for some dynamite to blow Mary straight to Hell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen went to a "Dynamite R Us Store", but the owner Marvin refused to sell her any dynamite. Karen pulled a gun and demanded quality service like it said on the sign in the window. Marvin said, "Yes, Ma'am!" and handed over 12 sticks of dynamite. Karen was happy with the service. But as she was putting away the gun, it accidentally went off and shot Marvin between the eyes. Karen felt real bad about it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Karen approached Mary's mobile home she was stopped by Ruby. Ruby gave her a hard look. Ruby "dissed" her. Ruby challenged her to a spelling bee and criticized her choice of attire. That was all more than Karen could take, because she always had a short fuse. So she smoked Ruby above the ear with a round from the '38. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen proceeded to put the dynamite under Mary's double-wide "Jerry Springer" brand mobile home. She realized that the blast would probably kill Billy too, and she felt real bad about it. Billy was the reason she was acting out, her love for him and all. But the way she figured, a girl's got to do what a girl's got to do. So she washed that man right out of her hair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">That night the blast killed both Mary and Billy. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss the potential first degree murder charges Karen might face along with lesser included offenses and her potential defenses. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-1: Attempt, Homicide, Res Gestae, Depraved Heart </t>
+  </si>
+  <si>
+    <t>STATE V. TOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CONSPIRACY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. ATTEMPTED ROBBERY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. DEFENSE OF MISTAKE OF FACT? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. BURGLARY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. LARCENY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. MURDER OF THE BABY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. INVOLUNTARY MANSLAUGHTER. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. MURDER of Victor? </t>
+  </si>
+  <si>
+    <t>STATE V. DICK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9. CONSPIRACY, ATTEMPTED ROBBERY, BURGLARY and LARCENY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10. MURDER of Victor? </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t>ANSWER EXPLANATION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t>: The main points here are that:</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Modernly a burglary generally requires a trespassory entry, an entry without permission to </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter, and does not necessarily require a physical breaking. 2) A fetus is not generally considered a human being. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) There are fetal-murder statutes you might need to discuss, but there are no “fetal-manslaughter” statutes (or if there are it is extremely unusual). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) The felony-murder rule cannot be applied to a death that results from acts done so long after the robbery that they were not part of the res gestae of the crime. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) There is no conspiracy liability for crimes committed by co-conspirators after the conspiracy has ended. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) Accomplices in one crime are not automatically liable for all subsequent crimes committed by other accomplices, even if they are committed in their presence unless there is some direct and natural causality linking the second crime back to the first crime.] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-2: Accomplice and Conspiracy Liability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-3: Murder, Mistake of Law, Self Defense, Insanity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-4: Arson, Larceny, Embezzlement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-5: Attempt, Mistake of Fact, Mistake of Law </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sample Answer 15-6: Murder, Murder, Murder </t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This purpose of this question was to present four murders, each representing one of the four types of malice for murder. Marvin is a “felony-murder rule” situation, Ruby is a “great bodily injury” case, Mary is an “intent to kill” case, and Bill is a “depraved heart theory” case. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A second purpose of the question is to illustrate that “depraved heart murder” is not necessarily a “second degree” murder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The question asks about “first degree" murder, and it is an express call. The call also asks about "lessor included offenses." That means manslaughter and NOT assault, battery, robbery, etc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You must define and discuss robbery as a basis for the felony-murder rule application to some extent. A death caused by a robbery is almost always going to be first degree murder because virtually every State includes it as one of its “enumerated felonies”. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only one murder here presents any evidence of "provocation" or “mitigating factors”.] </t>
+  </si>
+  <si>
+    <t>STATE v. KAREN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) MURDER of Marvin? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) ADEQUATE PROVOCATION for VOLUNTARY MANSLAUGHTER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) MURDER of Ruby? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) MURDER OF MARY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) MURDER OF BILL? </t>
+  </si>
+  <si>
+    <t>Under Criminal law, MURDER is a unlawful Homicide, the killing of one human being by another, with malice aforethought. Malice for murder may be 1) express intent to kill, 2) implied by intent to cause Great bodily Injury, 3) Intentionally committing an inherently dangerous  felony, the FELONY-MURDER RULE, or 4) intentionally acting with an awereness of and conscious disregard for unreasonable risks to human life, the DEPREAVED HEART THEORY.</t>
+  </si>
+  <si>
+    <t>The felony murder rule applies to death caused by acts done during the RES GESTAE of an inherent dangerous felony, the events beginning with the first substantial step toward commission of the crime and ending when the defendants leave the scene of the crime and reached a place of safety.</t>
+  </si>
+  <si>
+    <t>At common law there were no degrees of muder but modernly statutes define first degree murder as those that are 1) willful, deliberate, and premeditated; 2) by enumerated means like poison, torture, explosvies; 3) caused by the commission of enumerated felonies. All other murders are in second degree.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here there was an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unlawful homicide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because Marvin was a human being and he was killed by Lucy, another human being. And it was caused by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commission of an inherently dangerous</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> felony, ROBBERY, a larceny from the person by force or fear. Karen was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">taking personal property of another with intent to permanently deprive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">because she was taking "dynamite" from Marvin and she was using force or fear to overcome his will to resist because she used a "gun". The death of Marvin occured within the RES GESTAE  of the robbery because he was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shot before she left the scene</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of crime.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, Karen can be charged with murder for killing of Marvin during the robbery. This would be typically First Degree Murder because robbery is typically one of the "enumerated felonies" of first degree.</t>
+  </si>
+  <si>
+    <t>Murder is defined above.</t>
+  </si>
+  <si>
+    <t>There was an unlawful homicide because Ruby was a human being killed by Karen, another human being, without legal justification.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Karen also appears to have acted with an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>awareness and conscious disregard for danger to human life</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because she deliberately shot Ruby in the head for little good reason. Her act created </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extreme risks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to Ruby, she apparently had an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>awareness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the risks and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>consciously disregarded</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here Karen appears to have acted with an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">express intent to kill </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">because she shot Ruby in the "head" with a "gun". These facts imply an intent to kill. Alternatively, Karen clearly intended </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">great bodily injury </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>because homicide was caused by a "firearm". Use of firearm implies intent to cause serious bodily harm, regardless of where the victim is shot.</t>
+    </r>
+  </si>
+  <si>
+    <t>Base on any one of the above theories, Karen could be charged with the murder of Ruby.</t>
+  </si>
+  <si>
+    <t>It appears Karen killed Ruby willfully and deliberately. If that is proven the murder was FIRST DEGREE.  Karen might argue that she did not act willfully and deliberately to kill Ruby and only reacted instinctively because she had a "short fuse", a MITIGATING FACTOR that caused her to suffer from impaired capacity.</t>
+  </si>
+  <si>
+    <t>If Karen can convince the jury she acted instinctively and did not act willfully, deliberately and with premeditation the murder might be reduced to SECOND DEGREE.</t>
+  </si>
+  <si>
+    <t>Under criminal law VOLUNTARY MANSLAUGHTER  is an unlawful, intentional homicide without malice aforethought because of adequate provocation sufficient to raise a resonable person to a fit of rage which could and actually did cause the homicide.</t>
+  </si>
+  <si>
+    <t>Generally "mere words alone" are not considered at law to be adequate provocation.</t>
+  </si>
+  <si>
+    <t>Therefore, Karen would not succeed in reducing the murder charge to voluntary manslaughter.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here there was lack of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adequate provocation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> because "hard looks",  being "dissed", challenged to a "spelling bee" and "critisism of attire" are mere words alone that would not be sufficient to raise a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reasonable person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to a fit of murderous rage. The subjective factor that Karen "had a short fuse" would not lower the standard of conduct.</t>
+    </r>
+  </si>
+  <si>
+    <t>Here there wasa homicide because Mary was a human being killed by Karen, another human being. And Karen had an express intent to kill because she "decided to kill Mary". Further this killing was wilful, deliberate and premeditated because it was planned in advance.</t>
+  </si>
+  <si>
+    <t>Therefore, Karen can be charged with FIRST DEGREE murder of Mary and she has no defense.</t>
+  </si>
+  <si>
+    <t>Here there was homicide because Bill was a human being killed by Karen, another human being. Karen may have express intent to kill because she "knew the blast would probably kill bill." But karen would argue that she did not want to kill Bill Because "she felt real bad about it." Regardless, Karen deliberately created extreme risks to human life with awareness of and conscious disregard because she "knew the blast would probably kill Bill."</t>
+  </si>
+  <si>
+    <t>Therefore Karen could be charged with murder based on a Depraved Heart Theory of malice.</t>
+  </si>
+  <si>
+    <t>Further, this would  generally be FIRST DEGREE  murder because the use of explosives to murder is generally one of the "enumerated means" for first degree murder.</t>
+  </si>
+  <si>
+    <t>Therefore, Karen can probably charged with FIRST DEGREE murder of Bill even if she did not willfully and deliberately cause his death with premeditation. She has no defenses.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1629,6 +2231,11 @@
       <color theme="1"/>
       <name val="TimesNewRoman,Italic"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="TimesNewRoman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1647,7 +2254,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1655,8 +2262,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1690,14 +2299,25 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1973,12 +2593,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="66.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+    </row>
+    <row r="44" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+    </row>
+    <row r="46" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+    </row>
+    <row r="48" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+    </row>
+    <row r="50" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="52" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2665,7 +3512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -3410,12 +4257,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="61" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3857,49 +4787,593 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="62.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+    </row>
+    <row r="11" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+    </row>
+    <row r="13" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+    </row>
+    <row r="8" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+    </row>
+    <row r="14" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+    </row>
+    <row r="16" spans="1:1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="64.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44" style="8" customWidth="1"/>
+    <col min="3" max="3" width="76.83203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="B20" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B22" s="13"/>
+      <c r="C22" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
+      <c r="C24" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="B26" s="13"/>
+      <c r="C26" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B28" s="13"/>
+      <c r="C28" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B32" s="13"/>
+      <c r="C32" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+      <c r="C34" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B36" s="13"/>
+      <c r="C36" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="13"/>
+      <c r="C38" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B40" s="13"/>
+      <c r="C40" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B42" s="13"/>
+      <c r="C42" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B44" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="13"/>
+      <c r="C46" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B48" s="13"/>
+      <c r="C48" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="13"/>
+    </row>
+    <row r="50" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B50" s="13"/>
+      <c r="C50" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="13"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="13"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="17"/>
+    </row>
+    <row r="55" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
+      <c r="C55" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="C61" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C67" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+    </row>
+    <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+    </row>
+    <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+    </row>
+    <row r="76" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+    </row>
+    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/manish/courseLaw/LMR/Essays1.xlsx
+++ b/manish/courseLaw/LMR/Essays1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="460" windowWidth="24960" windowHeight="13780" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="12700" yWindow="460" windowWidth="12180" windowHeight="14500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Criminal Essay 1" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="366">
   <si>
     <t>Contracts</t>
   </si>
@@ -2161,13 +2161,180 @@
   </si>
   <si>
     <t>Therefore, Karen can probably charged with FIRST DEGREE murder of Bill even if she did not willfully and deliberately cause his death with premeditation. She has no defenses.</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question is quirky so paddling is necessary. Even if Tom and Dick were committing a crime it was not one of the “inherently dangerous crimes of rape, robbery, burglary or arson” so the felony-murder rule has no application here. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tom could only be charged under Depraved Heart. For that it must be shown he created extreme risks to others with an awareness of the risks and a conscious disregarded for them. But how could he have foreseen Oscar was crazy enough to shoot Dick? If Tom acted unreasonably enough to be charged with murder, he could not show he acted reasonably for a plea of self-defense] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE v. TOM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) MURDER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) INVOLUNTARY MANSLAUGHTER? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) SELF-DEFENSE? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) INSANITY? </t>
+  </si>
+  <si>
+    <t>Under criminal law murder is unlawful homicide , the killing of one human being by another, with MALICE aforethought. Malice for murder can be 1) express intent to kill or implied 2) intent to commit Great Bodily Injury, 3) Intent to commit an Inherent Dangerous Felony, the Felony Murder Rule or 4) intent to act with awereness of and conscious disregard for an unreasonably high risk to human life, the DEPRAVED HEART THEORY.</t>
+  </si>
+  <si>
+    <t>Under common law there are no degree of murder, but modernly FIRST DEGREE murder is 1) willful, deliberate, and premeditated 2) murder by enumerated means like poison, torture, explosives, etc. 3) Murder during enumerated dangerous felonies. All other murder is second degree.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here there was Homicide because Dick was a human being and he was "killed" by another human being, Oscar. But Tom did not do anything intending to cause Dick or anyone else to be killed or intending to cause great bodily injury to anyone. </t>
+  </si>
+  <si>
+    <t>Further, Tom was not engaged in commission of an "inherently dangerous felony" at the time so the felony-murder rule has no application. Therefore, the only basis for charging Tom with murder would be DEPRAVED HEART THEORY.</t>
+  </si>
+  <si>
+    <t>Tom did not deliberately create extreme risks to other people. He could not have reasonably foreseen Oscar would start shooting. Even if some danger could have been foreseen, Tom was not aware of it and did not consciously disregard the risks because he was "in a daze".</t>
+  </si>
+  <si>
+    <t>Therefore, Tom did not appear to deliberately create and consciously disregard extreme risks to others, and cannot be charged with murder under the DEPRAVED HEART THEORY unless that can be proven.</t>
+  </si>
+  <si>
+    <t>If murder could be charged here, it would be second degree murder because the death was not willful and deliberate, during a typically enumerated felony or by a typically enumerated means.</t>
+  </si>
+  <si>
+    <t>Involuntary manslaughter is an unintentional homicide resulting from GROSS NEGLIGENCE, RECKLESSNESS or the commission of a MALUM IN SE crime insufficient to support the felony murder rule.</t>
+  </si>
+  <si>
+    <t>GROSS (CRIMINAL) NEGLIGENCE is the deliberate breach of a pre-existing duty to protect others from extreme risks, and RECKLESSNESS is the deliberate creation of extreme risks to others.</t>
+  </si>
+  <si>
+    <t>Here there as an unintentional homicide because Dick died and Tom did not intend for him to die. And Tom was not committting any crime because smuggling Viagra was "not a crime". The MISTAKE OF LAW by Tom does not make an otherwise innocent act a crime.</t>
+  </si>
+  <si>
+    <t>Further, resisting unlawful arrest is not a crime. Here the arrest was unlawful because there was "no probable cause" and the police wanted to "harass" and "beat" Tom and Dick.</t>
+  </si>
+  <si>
+    <t>And Tom was not grossly negligent because he drove "55 mph" and did not deliberate create extreme risks to others.</t>
+  </si>
+  <si>
+    <t>State could only argue that Tom created extreme risks by refusing to stop his car, but he did not deliberately create those risks because he had an "overwhelming phobia", was "scared to death" and "could not bring himself to stop" the car.</t>
+  </si>
+  <si>
+    <t>Therefore, Tom could not be charged with involuntary manslaughter unless it could be proven his failure to stop was criminally negligent.</t>
+  </si>
+  <si>
+    <t>Under criminal law a defendant is privileged to use reasonable force as necessary for SELF-DEFENSE.</t>
+  </si>
+  <si>
+    <t>Here Tom acted to defend himself from harm because he was "scared to death" and Oscar wanted to "beat him". Oscar had no legal right to stop Tom because h had no probable cause. And Tom acted reasonably and used reasonable force because he only "drove at 55 mph".</t>
+  </si>
+  <si>
+    <t>The state may argue Tom acted unreasonably by refusing to stop, even if the police lacked probable cause, but there is no legal basis for such a claim.</t>
+  </si>
+  <si>
+    <t>Therefore, Tom would succeed in his defense that he acted in reasonable self-defense.</t>
+  </si>
+  <si>
+    <t>Here Tom could not plead M'Naughten because "he know it was wrong". But Tom could plead an irresistible impulse because "he had an overwhelming phobia" and "he could not help himself".</t>
+  </si>
+  <si>
+    <t>Therefore Tom might be successful with an insanity defense.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under criminal law INSANITY is a defense that negates criminal intent. Under the M'NAUGHTEN RULE  person is insane if a disease of the mind so impairs their reasoning that they are unable to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appreciate the nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and quality of their acts or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to know that they were wrong</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Under the IRRESISTIBILE IMPULSE theory a person may raise the defense of insanity if they are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unable to control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> their acts, even if they know the act is wrong. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2236,6 +2403,17 @@
       <color theme="1"/>
       <name val="TimesNewRoman"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2254,7 +2432,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2264,8 +2442,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2308,16 +2488,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4787,76 +4978,316 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="62.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="73.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
-    </row>
-    <row r="9" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B8" s="18" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
-    </row>
-    <row r="11" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+      <c r="B10" s="18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
     </row>
-    <row r="13" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
     </row>
-    <row r="15" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="19"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B39" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B41" s="19"/>
+      <c r="C41" s="20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B43" s="19"/>
+      <c r="C43" s="20" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B45" s="19"/>
+      <c r="C45" s="20" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B47" s="19"/>
+      <c r="C47" s="20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B53" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B59" s="19"/>
+      <c r="C59" s="20" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="2:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="B61" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="19"/>
+    </row>
+    <row r="63" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B63" s="19"/>
+      <c r="C63" s="20" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="19"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="19"/>
+      <c r="C65" s="20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5032,7 +5463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>

--- a/manish/courseLaw/LMR/Essays1.xlsx
+++ b/manish/courseLaw/LMR/Essays1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12700" yWindow="460" windowWidth="12180" windowHeight="14500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="24860" windowHeight="14500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Criminal Essay 1" sheetId="13" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="402">
   <si>
     <t>Contracts</t>
   </si>
@@ -2328,13 +2328,468 @@
       </rPr>
       <t xml:space="preserve"> their acts, even if they know the act is wrong. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">STATE V. HUEY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) CONSPIRACY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) EFFECTIVELY WITHDRAW from the conspiracy? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3) KIDNAPPING? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4) RAPE under a theory of ACCOMPLICE LIABILITY? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5) MURDER of Millie? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) MURDER of Louie? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under common law a CONSPIRACY was an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>agreement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>two or more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> people to pursue an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>illegal goal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. Modernly an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>overt step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> taken toward the criminal goal is often required. Conspiracy does not merge into the criminal goal. A conspirator may be charged with all crimes by co-conspirators while they are members of the conspiracy that are within the scope of conspiracy agreement, foreseeable acts in furtherance of the conspiracy goal.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here Huey </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ageed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>another person</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> because he "agreed" with "Louie", and the agreement was to pursue an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">illegal goal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">because it was to "kidnap Millie" and hold her for ransom. They took an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>overt step</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> because they did kidnap her.</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, Huey can be charged with conspiracy.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under Criminal law EFFECTIVE WITHDRAWAL from a conspiracy is a defense to liability for subsequent crimes by co-conspirators if the defendant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>gives notice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> go the other conspirators of intent to withdraw and then defendant must </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>act to stop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> the conspiracy from attaining its goal.</t>
+    </r>
+  </si>
+  <si>
+    <t>Here Huey gave notice because he told Loui "I quit". And he acted to stop the conspiracy because he "told the police".</t>
+  </si>
+  <si>
+    <t>Therefore, Huey effectively withdrew from the conspiracy when he told the police everything, but that did not absolve him from crimes tha toccured before that time.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, Huey did not act to stop the conspiracy until </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>after the kidnapping, rape and death of Millie.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Withdrawal only is a defense ot </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>subsequent crimes by co-conspirataors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> and here the withdrawal was not effective until after all crimes have been committed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under criminal law, a KIDNAPPING is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">unlawful taking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>confining of a person against their will.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here Huey </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>took and confined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Millie against her will because he and Loui "kidnapped Millie".</t>
+    </r>
+  </si>
+  <si>
+    <t>Therefore, Huey can be charged with kidnapping.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Under criminal law RAPE is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>unlawful intercourse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> with a person </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>without consent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">. An accomplice to a crime may be charged with all subsequent crimes committed by other accomplices if they were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>foreseeable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> as the direct and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>natural results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> of their own criminal acts.</t>
+    </r>
+  </si>
+  <si>
+    <t>Here Loui had intercourse with Millie because they "had sex." And it was without consent because Millie only agreed to intercourse because she had been kidnapped and Loui said he "would let her go in exchange." Since she was being held against her will and under duress, her apparent consent to intercourse was not effective.</t>
+  </si>
+  <si>
+    <t>Therefore, Loui raped Millie, and that rape was foreseeable to Huey as a direct and natural consequence of his own crime of kidnapping Millie. This was all direct and natural, and should have been foreseeable to Huey because he knew "Loui was a convicted rapist."</t>
+  </si>
+  <si>
+    <t>Therefore, Huey may be charged with the rape of Millie under a theory of accomplice liability.</t>
+  </si>
+  <si>
+    <t>Under Criminal law murder is an unlawful homicide, the killing of one human being by another with malice aforethought. Malice for murder may be 1) express intent to kill, or implied by 2) intent to cause great bodily injury, 3) intentionally committing an inherently dangerous felony, the FELONY-MURDER-RULE, or 4) intentionally acting with an awareness of and conscious disregard for unreasonable risks to human life, the DEPRAVED HEART THEORY. At common there were no degrees of murder but modernly statutes define first degree murder as those that are 1) willful, deliberate and premeditated, 2) by enumerated means, or 3) caused by the commission of enumerated dangerous felonies. All other murders are in the second degree.</t>
+  </si>
+  <si>
+    <t>Under criminal law one of the "inherently dangerious felonies" for application of felony murder rule is RAPE.</t>
+  </si>
+  <si>
+    <t>Here there was a homicide because Millie was a human being and she died as a result of the acts of Louie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huey would argue that Millie committed suicide and not homicide. But her death by her own hand was directly caused by the rape by Loui. She would not have killed herself if she had not been raped, and she would not have been raped if Hue had not kidnapped her and left her with Loui. The rape by Louie was foreseeable to Huey at the time of kidnapping, so his own acts were the actual and promiate cause of her death. Hue and Loui effectively caussed Millie to be the instrumentality of her own death. </t>
+  </si>
+  <si>
+    <t>Further, because Huey acted to place Millie at peril, he had an affirmative duty to protect her from the results of that peril, including protecting her from both Louie and her own suicidal impulses.</t>
+  </si>
+  <si>
+    <t>Therefore the staet would successfully argue that his was a homicide and not a simple suicide.</t>
+  </si>
+  <si>
+    <t>And the state would argue the FELONY-MURDER RULE applies to prove malice aforethought for murder because Millie died because of the commission of an inherently dangerous crime, rape.</t>
+  </si>
+  <si>
+    <t>As an alternative, the State may also argue that DEPRAVED HEART THEORY applies. Huye kidnapped Millie and left her with Loui, deliberate acts that created extreme risks to human life, and he did that with an awareness of and conscious disregard for the risk to human life because he know Loui was a "rapist".</t>
+  </si>
+  <si>
+    <t>Therefore, Huey could be charged with murder on FELONY-MURDER or DEPRAVED HEARTH THEORY.</t>
+  </si>
+  <si>
+    <t>Under the RELINE RULE the killing of a criminal accomplice by any party other than another criminal accomplice during the commisison of an inherently dangerous felony cannot be used as basis for charging murder under the FELONY-MURDER RULE.</t>
+  </si>
+  <si>
+    <t>Here there was a homicide because Louie was a human being and he was "killed by police". But the police shooting of Louie was a justified act to prevent a felony.</t>
+  </si>
+  <si>
+    <t>Therefore, Huey cannot be charged with FELONY-MURDER of Louie.</t>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman,Bold"/>
+      </rPr>
+      <t xml:space="preserve">ANSWER EXPLANATION: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="TimesNewRoman"/>
+      </rPr>
+      <t xml:space="preserve">This question points out two issues. Conspiracy liability only extends to acts within the SCOPE OF THE CONSPIRACY, meaning they must be foreseeable acts in furtherance of the conspiracy goal. But, accomplice liability extends to all foreseeable crimes by co-felons that are a direct and natural result of an initial crime. Here the rape is a direct and natural result of the kidnapping, so Huey is liable based on accomplice theory even if he is not liable based on conspiracy theory. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondly, Huey failed to effectively withdraw by acting to thwart the conspiracy, so he ends up liable for crimes that occurred after he said, "I quit." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But Huey cannot be charged with murder for the death of Louie (in many or most States) because of the Redline Rule.] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2414,6 +2869,23 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2432,7 +2904,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2444,8 +2916,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2497,18 +2977,37 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4448,92 +4947,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="1" max="1" width="61" style="21" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-    </row>
-    <row r="6" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+    </row>
+    <row r="6" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-    </row>
-    <row r="8" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="B6" s="18" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="23"/>
+      <c r="B7" s="18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="B8" s="18" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
+      <c r="B9" s="18" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="18" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="13" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="B11" s="18" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="23"/>
+      <c r="B12" s="18" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-    </row>
-    <row r="15" spans="1:1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="23"/>
+    </row>
+    <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="23"/>
+    </row>
+    <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-    </row>
-    <row r="19" spans="1:1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="23"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
         <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="19" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="B25" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+    </row>
+    <row r="27" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B31" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="19"/>
+    </row>
+    <row r="35" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="19"/>
+    </row>
+    <row r="39" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B39" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="19"/>
+    </row>
+    <row r="41" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B41" s="19"/>
+      <c r="C41" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="19"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="19"/>
+      <c r="C43" s="20" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="19"/>
+    </row>
+    <row r="45" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B45" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="19"/>
+    </row>
+    <row r="47" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B47" s="19"/>
+      <c r="C47" s="20" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="19"/>
+    </row>
+    <row r="49" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="19"/>
+    </row>
+    <row r="51" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="19"/>
+    </row>
+    <row r="53" spans="2:3" ht="144" x14ac:dyDescent="0.2">
+      <c r="B53" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="19"/>
+    </row>
+    <row r="57" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="19"/>
+    </row>
+    <row r="59" spans="2:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="B59" s="19"/>
+      <c r="C59" s="20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="19"/>
+    </row>
+    <row r="61" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B61" s="19"/>
+      <c r="C61" s="20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="19"/>
+    </row>
+    <row r="63" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C63" s="20" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C65" s="20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="64" x14ac:dyDescent="0.2">
+      <c r="C67" s="20" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C69" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70" s="19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="C71" s="20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C73" s="20" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C75" s="20" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="C77" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C78" s="3"/>
+    </row>
+    <row r="79" spans="2:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C79" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C80" s="3"/>
+    </row>
+    <row r="81" spans="3:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4980,7 +5752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+    <sheetView topLeftCell="B43" workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
